--- a/SonarLysaFX/lots Pic.xlsx
+++ b/SonarLysaFX/lots Pic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="E30" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="2655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6676" uniqueCount="2656">
   <si>
     <t>N°</t>
   </si>
@@ -7984,6 +7984,9 @@
   </si>
   <si>
     <t>Wilot BF0231_Lot1_PUC_CDM22</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -8019,9 +8022,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8325,8 +8329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N491"/>
   <sheetViews>
-    <sheetView topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="F332" sqref="F332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20771,8 +20775,8 @@
       <c r="C336" t="s">
         <v>803</v>
       </c>
-      <c r="D336">
-        <v>0</v>
+      <c r="D336" s="2" t="s">
+        <v>2655</v>
       </c>
       <c r="E336" t="s">
         <v>804</v>
@@ -26348,7 +26352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -63944,8 +63948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
